--- a/Sources.xlsx
+++ b/Sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Interns-Fellowships\Alexis 2020\GDP Project\GDP Data Vis\IL-Budget-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{121D826A-C442-4609-8B77-50A7D9F523C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140FC6B-0C9B-41E3-B0FE-08E508F9A4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0EEECDD-05AE-435E-9809-49C58547E541}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>Intitiy Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>DETAILED GENERAL FUNDS REVENUE HISTORY FY 2010 - FY 2019</t>
   </si>
   <si>
-    <t>FY 2019 GENERAL FUNDS REVENUE ESTIMATE UPDATED CGFA [Mar-19] vs. ENACTED BUDGET [June-18]</t>
-  </si>
-  <si>
     <t>FY 2019 GENERAL FUNDS REVENUE COMPARISON CGFA [Mar-19] vs.GOMB [Feb-19]</t>
   </si>
   <si>
@@ -157,37 +154,46 @@
     <t>page in PDF</t>
   </si>
   <si>
-    <t>COGA_GenFundRev_Mar</t>
-  </si>
-  <si>
-    <t>COGA_GenFundCompare_Mar</t>
-  </si>
-  <si>
     <t>COGA_GenFundEsti_Mar</t>
   </si>
   <si>
-    <t>COGA_GenFundHist_Mar</t>
-  </si>
-  <si>
     <t>Note: Date not officially May 1, Date given is just May 2019</t>
   </si>
   <si>
-    <t>COGA_GenFundHist_May</t>
-  </si>
-  <si>
     <t>http://cgfa.ilga.gov/Upload/052019UpdatedFY2020andFY%202019RevenueEstimates.pdf</t>
   </si>
   <si>
     <t>COGA_GenFundEst_May</t>
   </si>
   <si>
-    <t>COGA_GenFundCompare_May</t>
-  </si>
-  <si>
-    <t>COGA_GenFundRevEst_May</t>
-  </si>
-  <si>
-    <t>COGA_GenFundCGFAEst_May</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>http://cgfa.ilga.gov/Upload/03052019econforecastrevest2019-2020.pdf</t>
+  </si>
+  <si>
+    <t>COGA_GenFundRevenue_Mar</t>
+  </si>
+  <si>
+    <t>COGA_GenFundEstCompare_Mar</t>
+  </si>
+  <si>
+    <t>COGA_GenFundRevHist_Mar</t>
+  </si>
+  <si>
+    <t>COGFA_GenFundCompare_May</t>
+  </si>
+  <si>
+    <t>COGFA_GenFundRevEst_May</t>
+  </si>
+  <si>
+    <t>COGFA_GenFundCGFAEst_May</t>
+  </si>
+  <si>
+    <t>COGFA_GenFundHist_May</t>
+  </si>
+  <si>
+    <t>redo by hand,DONE</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +264,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,16 +584,16 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -594,13 +602,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -618,15 +626,18 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -664,15 +675,18 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
@@ -695,12 +709,14 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
@@ -722,12 +738,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -749,12 +767,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -776,12 +796,14 @@
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
@@ -803,126 +825,139 @@
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13">
-        <v>43529</v>
+      <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43528</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="5">
         <v>28</v>
       </c>
       <c r="I9" s="5">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="13">
         <v>43529</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" s="5">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="13">
         <v>43529</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5">
         <v>32</v>
       </c>
       <c r="I11" s="5">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>12</v>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="8">
         <v>43529</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="10">
         <v>36</v>
       </c>
       <c r="I12" s="10">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" s="13">
         <v>43586</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5">
         <v>9</v>
@@ -936,19 +971,22 @@
         <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14" s="13">
         <v>43586</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="5">
         <v>11</v>
@@ -962,19 +1000,22 @@
         <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F15" s="13">
         <v>43586</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5">
         <v>14</v>
@@ -988,19 +1029,22 @@
         <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F16" s="13">
         <v>43586</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="5">
         <v>16</v>
@@ -1011,22 +1055,25 @@
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F17" s="13">
         <v>43586</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="5">
         <v>20</v>
@@ -1040,7 +1087,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1051,6 +1098,10 @@
     <hyperlink ref="E6:E8" r:id="rId4" display="http://cgfa.ilga.gov/Upload/FY2020BudgetSummary.pdf" xr:uid="{D1510AE3-972B-4A3F-BBFD-46694C7A1C72}"/>
     <hyperlink ref="E13" r:id="rId5" display="http://cgfa.ilga.gov/Upload/052019UpdatedFY2020andFY 2019RevenueEstimates.pdf" xr:uid="{D9F45BE3-E947-4AD9-991F-FF3A320A6798}"/>
     <hyperlink ref="E14:E17" r:id="rId6" display="http://cgfa.ilga.gov/Upload/052019UpdatedFY2020andFY 2019RevenueEstimates.pdf" xr:uid="{0B7470A8-D959-4454-A434-9FB0241236A9}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{EE72F290-DB1C-49D6-8E7B-A8E156BB2D38}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{521992D7-63BD-491A-9842-171C4C2872CA}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{A1D7BE81-41E3-4B70-9D2C-B177BBF86913}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{E3B187C5-BD0C-4B90-A53B-37188F2EE9D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
